--- a/biology/Médecine/Infirmier_sapeur-pompier/Infirmier_sapeur-pompier.xlsx
+++ b/biology/Médecine/Infirmier_sapeur-pompier/Infirmier_sapeur-pompier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, les infirmiers sapeurs-pompiers (dont le sigle est I.S.P.) sont des infirmiers ou des sages-femmes (volontaires ou professionnels) engagés au sein du  Service de santé et de secours médical du Service départemental d'incendie et de secours des sapeurs pompiers.
 </t>
@@ -511,9 +523,11 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La création du statut d'infirmier sapeur-pompier est ancienne et le Service de santé et de secours médical est précurseur dans la création de cette réponse graduée[réf. souhaitée]. Certains SAMU ont repris cette idée de médicalisation sur protocole et certains d'entre eux commencent à envoyer un infirmier seul armé de protocoles de soins infirmiers[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La création du statut d'infirmier sapeur-pompier est ancienne et le Service de santé et de secours médical est précurseur dans la création de cette réponse graduée[réf. souhaitée]. Certains SAMU ont repris cette idée de médicalisation sur protocole et certains d'entre eux commencent à envoyer un infirmier seul armé de protocoles de soins infirmiers.
 Ils permettent un échelon de réponse supplémentaire entre les secouristes et le SMUR, permettant de libérer une équipe médicale lorsque le cas dépasse les compétences des secouristes mais ne nécessite pas la présence d'un médecin, et qu'une prise en charge spécialisée peut être faite pour assurer des soins conservatoires, sur protocole, en attendant l'intervention d'un SMUR, plus éloigné. Ils doivent rendre compte des protocoles mis en œuvre et de l'état de santé du patient pris en charge au médecin régulateur du SAMU, par téléphone ou par radio.
 Cette fonction correspond aussi à une obligation professionnelle des infirmiers. L'article R4311-14 du Code de la santé publique dispose : "En cas d'urgence et en dehors de la mise en œuvre du protocole, l'infirmier ou l'infirmière décide des gestes à pratiquer en attendant que puisse intervenir un médecin. Il prend toutes mesures en son pouvoir afin de diriger la personne vers la structure de soins la plus appropriée à son état." L'obligation de soin d'urgence s'impose donc à l'ensemble des infirmiers quel que soit leur niveau de formation en l'absence d'un médecin. Il est de leur responsabilité d'organiser l'orientation de la victime vers la structure de soin adapté.
 </t>
@@ -544,9 +558,11 @@
           <t>Missions spécifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En complément de leurs compétences infirmières, les infirmiers sapeur-pompier ont plusieurs missions spécifiques[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En complément de leurs compétences infirmières, les infirmiers sapeur-pompier ont plusieurs missions spécifiques :
 surveillance de la condition physique des sapeurs-pompiers
 exercice de la médecine professionnelle et d'aptitude des sapeurs-pompiers (visites médicales)
 conseil en matière de médecine préventive, d'hygiène et de sécurité,
@@ -585,13 +601,15 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En France, le prérequis est le diplôme d'État d'infirmier ou de sage-femme
 La formation initiale d'application (F.I.A.) des I.S.P. comprend quatre modules :
-le Tronc Commun de Sécurité Civile, réalisé à l'École Nationale Supérieure des Officiers de Sapeurs Pompiers[3]
-le secourisme (niveau PSE2)[4]
-le DIU SSSM des SDIS, module Santé Publique (Université de Strasbourg et Bordeaux)[5]
+le Tronc Commun de Sécurité Civile, réalisé à l'École Nationale Supérieure des Officiers de Sapeurs Pompiers
+le secourisme (niveau PSE2)
+le DIU SSSM des SDIS, module Santé Publique (Université de Strasbourg et Bordeaux)
 le DIU SSSM des SDIS, module Urgence
 À l'issue de la formation, l'infirmier de sapeurs-pompiers se voit décerner le brevet d'infirmier de sapeurs-pompiers.
 Il existe une formation pour les ISP volontaires, et une autre pour les ISP professionnels.
@@ -625,7 +643,9 @@
           <t>Association, représentativité et rencontres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les infirmiers sapeurs-pompiers sont représentés au sein de la Fédération Nationale des Sapeurs-Pompiers de France par le biais d'un Groupe Catégoriel Technique Infirmier. Ils sont également présents dans les principaux syndicats (Syndicat National des Sapeurs-Pompiers professionnels). Enfin, l'Association Nationale des Infirmiers de Sapeurs-Pompiers (ANISP), réunit les ISP, à l'occasion des Journées Nationales des Infirmiers de Sapeurs Pompiers (JNISP) afin de promouvoir leur métier, échanger et communiquer. Ce congrès représente le plus grand rassemblement national des ISP. 
 Les JNISP 2014 se sont déroulées les 21 et 22 novembre[Quand ?] à Antibes[réf. nécessaire].   
